--- a/medicine/Psychotrope/Renate_Schoene/Renate_Schoene.xlsx
+++ b/medicine/Psychotrope/Renate_Schoene/Renate_Schoene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Renate Schoene (née le 30 mars 1945 et morte le 12 février 2013 (à 67 ans)[1]) est une bibliothécaire allemande.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Renate Schoene (née le 30 mars 1945 et morte le 12 février 2013 (à 67 ans)) est une bibliothécaire allemande.
 Elle a écrit une monumentale bibliographie sur le vin avec comme centre de gravité son histoire des origines jusqu'à l'époque contemporaine. Cette bibliographie concerne près de 29 800 titres (dans la troisième édition numérique), dont surtout des ouvrages imprimés en allemand ; 1 600 de ces ouvrages sont à la bibliothèque de l'université de Sciences appliquées Geisenheim.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bibliographie
 (de) Bibliographie zur Geschichte des Weines. Unter Mitwirkung von Mitarbeitern der Universitätsbibliothek Bonn. Im Auftrag der Gesellschaft für Geschichte des Weines (de) hrsg. von Karl Fill.  Mannheim, Südwestdeutsche Verlagsanstalt, 1976-1984. 4 volumes. ("Schoene 1")
